--- a/pmi/monthly_table.xlsx
+++ b/pmi/monthly_table.xlsx
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Series Index Oct</t>
+          <t>Series Index Apr</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Series Index Sep</t>
+          <t>Series Index Mar</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -478,17 +478,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>46.7</t>
+          <t>49.2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>50.3</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-2.3</t>
+          <t>-1.1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -498,12 +498,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Faster</t>
+          <t>From Growing</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -515,17 +515,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>49.2</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-3.7</t>
+          <t>-2.3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -535,12 +535,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Faster</t>
+          <t>From Growing</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -552,17 +552,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>51.3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>52.5</t>
+          <t>54.6</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-2.1</t>
+          <t>-3.3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -589,17 +589,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>46.8</t>
+          <t>48.6</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>47.4</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-4.4</t>
+          <t>+1.2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -609,12 +609,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>From Growing</t>
+          <t>Slower</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -626,17 +626,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>47.7</t>
+          <t>48.9</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>49.9</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>+1.3</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -646,12 +646,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Slower</t>
+          <t>Faster</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -663,17 +663,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>43.3</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-2.5</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -683,12 +683,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Faster</t>
+          <t>Same</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -700,17 +700,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>48.6</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>+1.5</t>
+          <t>+3.8</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -737,32 +737,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>60.9</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>43.8</t>
+          <t>55.8</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>+1.3</t>
+          <t>+5.1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Decreasing</t>
+          <t>Increasing</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Slower</t>
+          <t>Faster</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -774,17 +774,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>45.4</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>42.4</t>
+          <t>46.3</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-0.2</t>
+          <t>-0.9</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -811,17 +811,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>48.7</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>47.4</t>
+          <t>51.6</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>+2.0</t>
+          <t>-2.9</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -831,12 +831,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Slower</t>
+          <t>From Growing</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>47.9</t>
+          <t>51.9</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>48.2</t>
+          <t>53.0</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-0.3</t>
+          <t>-1.1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Contracting</t>
+          <t>Growing</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Faster</t>
+          <t>Slower</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -900,17 +900,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Contracting</t>
+          <t>Growing</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>From Growing</t>
+          <t>Slower</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>48</t>
         </is>
       </c>
     </row>
@@ -942,12 +942,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Faster</t>
+          <t>From Growing</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
     </row>
